--- a/employee_password_data.xlsx
+++ b/employee_password_data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="336">
   <si>
     <t>Name</t>
   </si>
@@ -1002,6 +1002,36 @@
   </si>
   <si>
     <t>BYTY8456</t>
+  </si>
+  <si>
+    <t>Varun</t>
+  </si>
+  <si>
+    <t>banglore</t>
+  </si>
+  <si>
+    <t>vsrinivasan2203@altimetrik.com</t>
+  </si>
+  <si>
+    <t>Shrikanth</t>
+  </si>
+  <si>
+    <t>Shrikant.Salke@altimetrik.com</t>
+  </si>
+  <si>
+    <t>Sameeksha</t>
+  </si>
+  <si>
+    <t>snaik2187@altimetrik.com</t>
+  </si>
+  <si>
+    <t>GQBY5008</t>
+  </si>
+  <si>
+    <t>KEUA6543</t>
+  </si>
+  <si>
+    <t>GWOO3554</t>
   </si>
 </sst>
 </file>
@@ -1494,13 +1524,14 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1823,10 +1854,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J104"/>
+  <dimension ref="A1:J107"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="H105" sqref="H105"/>
+      <selection activeCell="H106" sqref="H106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4548,13 +4579,92 @@
       <c r="I104" s="5"/>
       <c r="J104" s="5"/>
     </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105" s="5">
+        <v>2203</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="F105" s="2">
+        <v>917410186388</v>
+      </c>
+      <c r="G105" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="H105" s="5" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" s="5">
+        <v>3165</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="F106" s="2">
+        <v>919448493932</v>
+      </c>
+      <c r="G106" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="H106" s="5" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107" s="5">
+        <v>2187</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="F107" s="2">
+        <v>919611666426</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="H107" s="5" t="s">
+        <v>333</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1"/>
     <hyperlink ref="G102" r:id="rId2"/>
     <hyperlink ref="G104" r:id="rId3"/>
+    <hyperlink ref="G107" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/employee_password_data.xlsx
+++ b/employee_password_data.xlsx
@@ -1857,7 +1857,7 @@
   <dimension ref="A1:J107"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="H106" sqref="H106"/>
+      <selection activeCell="F105" sqref="F105:F107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4596,7 +4596,7 @@
         <v>327</v>
       </c>
       <c r="F105" s="2">
-        <v>917410186388</v>
+        <v>919611666426</v>
       </c>
       <c r="G105" s="6" t="s">
         <v>328</v>
@@ -4622,7 +4622,7 @@
         <v>327</v>
       </c>
       <c r="F106" s="2">
-        <v>919448493932</v>
+        <v>917410186388</v>
       </c>
       <c r="G106" s="5" t="s">
         <v>330</v>
@@ -4648,7 +4648,7 @@
         <v>327</v>
       </c>
       <c r="F107" s="2">
-        <v>919611666426</v>
+        <v>919448493932</v>
       </c>
       <c r="G107" s="1" t="s">
         <v>332</v>
